--- a/RRHH/Outputs/form_sueldos_cba.xlsx
+++ b/RRHH/Outputs/form_sueldos_cba.xlsx
@@ -715,6 +715,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>802</v>
       </c>
@@ -753,6 +756,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>802</v>
       </c>
@@ -791,6 +797,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>120</v>
       </c>
@@ -829,6 +838,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>560</v>
       </c>
@@ -867,6 +879,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -905,6 +920,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>630</v>
       </c>
@@ -943,6 +961,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>120</v>
       </c>
@@ -981,6 +1002,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>560</v>
       </c>
@@ -1019,6 +1043,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>700</v>
       </c>
@@ -1056,6 +1083,9 @@
       </c>
       <c r="B15">
         <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
       </c>
       <c r="H15">
         <v>671</v>
@@ -1185,6 +1215,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>820</v>
       </c>
@@ -1223,6 +1256,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>85</v>
       </c>
@@ -1261,6 +1297,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>671</v>
       </c>
@@ -1299,6 +1338,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>395</v>
       </c>
@@ -1337,6 +1379,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>1200</v>
       </c>
@@ -1375,6 +1420,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>820</v>
       </c>
@@ -1413,6 +1461,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>671</v>
       </c>
@@ -1451,6 +1502,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>671</v>
       </c>
@@ -1489,6 +1543,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>671</v>
       </c>
@@ -1527,6 +1584,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>671</v>
       </c>
@@ -1565,6 +1625,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>671</v>
       </c>
@@ -1603,6 +1666,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>671</v>
       </c>
@@ -1641,6 +1707,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>671</v>
       </c>
@@ -1679,6 +1748,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>671</v>
       </c>
@@ -1716,6 +1788,9 @@
       </c>
       <c r="B20">
         <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="H20">
         <v>120</v>
@@ -1845,6 +1920,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>671</v>
       </c>
@@ -1883,6 +1961,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>671</v>
       </c>
@@ -1921,6 +2002,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>450</v>
       </c>
@@ -1959,6 +2043,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>450</v>
       </c>
@@ -1997,6 +2084,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>671</v>
       </c>
@@ -2035,6 +2125,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>671</v>
       </c>
@@ -2073,6 +2166,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>120</v>
       </c>
@@ -2111,6 +2207,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>120</v>
       </c>
@@ -2149,6 +2248,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>671</v>
       </c>
@@ -2187,6 +2289,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>671</v>
       </c>
@@ -2225,6 +2330,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>671</v>
       </c>
@@ -2263,6 +2371,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>671</v>
       </c>
@@ -2301,6 +2412,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>671</v>
       </c>
@@ -2339,6 +2453,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>671</v>
       </c>
@@ -2376,6 +2493,9 @@
       </c>
       <c r="B20">
         <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="H20">
         <v>450</v>
@@ -2505,6 +2625,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>115</v>
       </c>
@@ -2543,6 +2666,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>120</v>
       </c>
@@ -2581,6 +2707,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>671</v>
       </c>
@@ -2619,6 +2748,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>671</v>
       </c>
@@ -2657,6 +2789,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>671</v>
       </c>
@@ -2695,6 +2830,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>671</v>
       </c>
@@ -2733,6 +2871,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>671</v>
       </c>
@@ -2771,6 +2912,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>260</v>
       </c>
@@ -2809,6 +2953,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>250</v>
       </c>
@@ -2847,6 +2994,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>250</v>
       </c>
@@ -2885,6 +3035,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>250</v>
       </c>
@@ -2923,6 +3076,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>260</v>
       </c>
@@ -2961,6 +3117,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>160</v>
       </c>
@@ -2999,6 +3158,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>370</v>
       </c>
@@ -3037,6 +3199,9 @@
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="H20">
         <v>550</v>
       </c>
@@ -3075,6 +3240,9 @@
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>260</v>
       </c>
@@ -3113,6 +3281,9 @@
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>370</v>
       </c>
@@ -3151,6 +3322,9 @@
       <c r="B23">
         <v>2022</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>550</v>
       </c>
@@ -3189,6 +3363,9 @@
       <c r="B24">
         <v>2022</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="H24">
         <v>260</v>
       </c>
@@ -3227,6 +3404,9 @@
       <c r="B25">
         <v>2022</v>
       </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="H25">
         <v>370</v>
       </c>
@@ -3265,6 +3445,9 @@
       <c r="B26">
         <v>2022</v>
       </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
       <c r="H26">
         <v>160</v>
       </c>
@@ -3303,6 +3486,9 @@
       <c r="B27">
         <v>2022</v>
       </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
       <c r="H27">
         <v>260</v>
       </c>
@@ -3340,6 +3526,9 @@
       </c>
       <c r="B28">
         <v>2022</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
       </c>
       <c r="H28">
         <v>250</v>
@@ -3469,6 +3658,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>450</v>
       </c>
@@ -3507,6 +3699,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>450</v>
       </c>
@@ -3545,6 +3740,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>671</v>
       </c>
@@ -3583,6 +3781,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>671</v>
       </c>
@@ -3621,6 +3822,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>671</v>
       </c>
@@ -3659,6 +3863,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>671</v>
       </c>
@@ -3697,6 +3904,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>671</v>
       </c>
@@ -3735,6 +3945,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>671</v>
       </c>
@@ -3772,6 +3985,9 @@
       </c>
       <c r="B14">
         <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="H14">
         <v>671</v>
@@ -3901,6 +4117,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>275</v>
       </c>
@@ -3939,6 +4158,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>671</v>
       </c>
@@ -3977,6 +4199,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>930</v>
       </c>
@@ -4015,6 +4240,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>275</v>
       </c>
@@ -4053,6 +4281,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>700</v>
       </c>
@@ -4091,6 +4322,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>671</v>
       </c>
@@ -4129,6 +4363,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>671</v>
       </c>
@@ -4167,6 +4404,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>85</v>
       </c>
@@ -4205,6 +4445,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>1246</v>
       </c>
@@ -4243,6 +4486,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>340</v>
       </c>
@@ -4281,6 +4527,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>798</v>
       </c>
@@ -4318,6 +4567,9 @@
       </c>
       <c r="B17">
         <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="H17">
         <v>210</v>
@@ -4447,6 +4699,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>120</v>
       </c>
@@ -4485,6 +4740,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>120</v>
       </c>
@@ -4523,6 +4781,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>671</v>
       </c>
@@ -4561,6 +4822,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>671</v>
       </c>
@@ -4599,6 +4863,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>690</v>
       </c>
@@ -4637,6 +4904,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>672</v>
       </c>
@@ -4675,6 +4945,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>120</v>
       </c>
@@ -4713,6 +4986,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>120</v>
       </c>
@@ -4751,6 +5027,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>528</v>
       </c>
@@ -4789,6 +5068,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>169</v>
       </c>
@@ -4827,6 +5109,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>805</v>
       </c>
@@ -4865,6 +5150,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>232</v>
       </c>
@@ -4903,6 +5191,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>600</v>
       </c>
@@ -4941,6 +5232,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>600</v>
       </c>
@@ -4979,6 +5273,9 @@
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="H20">
         <v>120</v>
       </c>
@@ -5017,6 +5314,9 @@
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>560</v>
       </c>
@@ -5055,6 +5355,9 @@
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>700</v>
       </c>
@@ -5093,6 +5396,9 @@
       <c r="B23">
         <v>2022</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>450</v>
       </c>
@@ -5130,6 +5436,9 @@
       </c>
       <c r="B24">
         <v>2022</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="H24">
         <v>930</v>
@@ -5259,6 +5568,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>470</v>
       </c>
@@ -5297,6 +5609,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>470</v>
       </c>
@@ -5335,6 +5650,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>120</v>
       </c>
@@ -5373,6 +5691,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>560</v>
       </c>
@@ -5411,6 +5732,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>1235</v>
       </c>
@@ -5449,6 +5773,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>630</v>
       </c>
@@ -5487,6 +5814,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>1100</v>
       </c>
@@ -5522,6 +5852,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>1100</v>
       </c>
@@ -5557,6 +5890,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>700</v>
       </c>
@@ -5595,6 +5931,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>120</v>
       </c>
@@ -5632,6 +5971,9 @@
       </c>
       <c r="B16">
         <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="H16">
         <v>560</v>
@@ -5761,6 +6103,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>260</v>
       </c>
@@ -5799,6 +6144,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>250</v>
       </c>
@@ -5837,6 +6185,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>160</v>
       </c>
@@ -5875,6 +6226,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>802</v>
       </c>
@@ -5913,6 +6267,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>802</v>
       </c>
@@ -5951,6 +6308,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>120</v>
       </c>
@@ -5989,6 +6349,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>560</v>
       </c>
@@ -6026,6 +6389,9 @@
       </c>
       <c r="B13">
         <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="H13">
         <v>1325</v>
@@ -6152,6 +6518,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>169</v>
       </c>
@@ -6190,6 +6559,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>700</v>
       </c>
@@ -6228,6 +6600,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>120</v>
       </c>
@@ -6266,6 +6641,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>120</v>
       </c>
@@ -6304,6 +6682,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>120</v>
       </c>
@@ -6342,6 +6723,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>120</v>
       </c>
@@ -6380,6 +6764,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>120</v>
       </c>
@@ -6418,6 +6805,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>120</v>
       </c>
@@ -6456,6 +6846,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>450</v>
       </c>
@@ -6494,6 +6887,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>400</v>
       </c>
@@ -6532,6 +6928,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>160</v>
       </c>
@@ -6570,6 +6969,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>10</v>
       </c>
@@ -6608,6 +7010,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>115</v>
       </c>
@@ -6646,6 +7051,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>115</v>
       </c>
@@ -6684,6 +7092,9 @@
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="H20">
         <v>10</v>
       </c>
@@ -6722,6 +7133,9 @@
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>260</v>
       </c>
@@ -6760,6 +7174,9 @@
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>250</v>
       </c>
@@ -6798,6 +7215,9 @@
       <c r="B23">
         <v>2022</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>160</v>
       </c>
@@ -6836,6 +7256,9 @@
       <c r="B24">
         <v>2022</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="H24">
         <v>115</v>
       </c>
@@ -6873,6 +7296,9 @@
       </c>
       <c r="B25">
         <v>2022</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="H25">
         <v>115</v>
@@ -7002,6 +7428,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>260</v>
       </c>
@@ -7040,6 +7469,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>250</v>
       </c>
@@ -7078,6 +7510,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>250</v>
       </c>
@@ -7116,6 +7551,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>250</v>
       </c>
@@ -7154,6 +7592,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>160</v>
       </c>
@@ -7192,6 +7633,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>85</v>
       </c>
@@ -7230,6 +7674,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>850</v>
       </c>
@@ -7268,6 +7715,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>170</v>
       </c>
@@ -7306,6 +7756,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>711</v>
       </c>
@@ -7344,6 +7797,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>120</v>
       </c>
@@ -7382,6 +7838,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>120</v>
       </c>
@@ -7420,6 +7879,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>671</v>
       </c>
@@ -7458,6 +7920,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>671</v>
       </c>
@@ -7496,6 +7961,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>671</v>
       </c>
@@ -7533,6 +8001,9 @@
       </c>
       <c r="B20">
         <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
       </c>
       <c r="H20">
         <v>671</v>
@@ -7662,6 +8133,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>671</v>
       </c>
@@ -7700,6 +8174,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>671</v>
       </c>
@@ -7738,6 +8215,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>120</v>
       </c>
@@ -7776,6 +8256,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>560</v>
       </c>
@@ -7814,6 +8297,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>275</v>
       </c>
@@ -7852,6 +8338,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>275</v>
       </c>
@@ -7890,6 +8379,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>700</v>
       </c>
@@ -7928,6 +8420,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>671</v>
       </c>
@@ -7966,6 +8461,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>120</v>
       </c>
@@ -8004,6 +8502,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>120</v>
       </c>
@@ -8042,6 +8543,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>85</v>
       </c>
@@ -8080,6 +8584,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>946</v>
       </c>
@@ -8118,6 +8625,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>807</v>
       </c>
@@ -8155,6 +8665,9 @@
       </c>
       <c r="B19">
         <v>2022</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
       </c>
       <c r="H19">
         <v>168</v>
@@ -8284,6 +8797,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>115</v>
       </c>
@@ -8322,6 +8838,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>115</v>
       </c>
@@ -8360,6 +8879,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>360</v>
       </c>
@@ -8398,6 +8920,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>360</v>
       </c>
@@ -8436,6 +8961,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>690</v>
       </c>
@@ -8474,6 +9002,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>690</v>
       </c>
@@ -8512,6 +9043,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>120</v>
       </c>
@@ -8550,6 +9084,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>560</v>
       </c>
@@ -8588,6 +9125,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>300</v>
       </c>
@@ -8626,6 +9166,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>1235</v>
       </c>
@@ -8664,6 +9207,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>300</v>
       </c>
@@ -8702,6 +9248,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>630</v>
       </c>
@@ -8740,6 +9289,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>815</v>
       </c>
@@ -8778,6 +9330,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -8816,6 +9371,9 @@
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="H20">
         <v>700</v>
       </c>
@@ -8854,6 +9412,9 @@
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>528</v>
       </c>
@@ -8892,6 +9453,9 @@
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>169</v>
       </c>
@@ -8930,6 +9494,9 @@
       <c r="B23">
         <v>2022</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>805</v>
       </c>
@@ -8967,6 +9534,9 @@
       </c>
       <c r="B24">
         <v>2022</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="H24">
         <v>232</v>
@@ -9096,6 +9666,9 @@
       <c r="B6">
         <v>2022</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -9134,6 +9707,9 @@
       <c r="B7">
         <v>2022</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="H7">
         <v>120</v>
       </c>
@@ -9172,6 +9748,9 @@
       <c r="B8">
         <v>2022</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="H8">
         <v>120</v>
       </c>
@@ -9210,6 +9789,9 @@
       <c r="B9">
         <v>2022</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="H9">
         <v>528</v>
       </c>
@@ -9248,6 +9830,9 @@
       <c r="B10">
         <v>2022</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>169</v>
       </c>
@@ -9286,6 +9871,9 @@
       <c r="B11">
         <v>2022</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="H11">
         <v>300</v>
       </c>
@@ -9324,6 +9912,9 @@
       <c r="B12">
         <v>2022</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="H12">
         <v>300</v>
       </c>
@@ -9362,6 +9953,9 @@
       <c r="B13">
         <v>2022</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="H13">
         <v>275</v>
       </c>
@@ -9400,6 +9994,9 @@
       <c r="B14">
         <v>2022</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="H14">
         <v>275</v>
       </c>
@@ -9438,6 +10035,9 @@
       <c r="B15">
         <v>2022</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="H15">
         <v>10</v>
       </c>
@@ -9476,6 +10076,9 @@
       <c r="B16">
         <v>2022</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>1175</v>
       </c>
@@ -9514,6 +10117,9 @@
       <c r="B17">
         <v>2022</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="H17">
         <v>640</v>
       </c>
@@ -9552,6 +10158,9 @@
       <c r="B18">
         <v>2022</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="H18">
         <v>672</v>
       </c>
@@ -9590,6 +10199,9 @@
       <c r="B19">
         <v>2022</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="H19">
         <v>672</v>
       </c>
@@ -9628,6 +10240,9 @@
       <c r="B20">
         <v>2022</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="H20">
         <v>671</v>
       </c>
@@ -9666,6 +10281,9 @@
       <c r="B21">
         <v>2022</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="H21">
         <v>671</v>
       </c>
@@ -9704,6 +10322,9 @@
       <c r="B22">
         <v>2022</v>
       </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="H22">
         <v>260</v>
       </c>
@@ -9742,6 +10363,9 @@
       <c r="B23">
         <v>2022</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>250</v>
       </c>
@@ -9780,6 +10404,9 @@
       <c r="B24">
         <v>2022</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="H24">
         <v>160</v>
       </c>
@@ -9817,6 +10444,9 @@
       </c>
       <c r="B25">
         <v>2022</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1100</v>
